--- a/backtest/bt_report/bs_voq_rs_m_ind/single_run/summary.xlsx
+++ b/backtest/bt_report/bs_voq_rs_m_ind/single_run/summary.xlsx
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>253770212.7213472</v>
+        <v>326006620.7470211</v>
       </c>
       <c r="C8" s="13" t="n"/>
       <c r="D8" s="13" t="n"/>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B9" s="7" t="n">
-        <v>440.9167471900436</v>
+        <v>107.8008210472763</v>
       </c>
       <c r="C9" s="13" t="n"/>
       <c r="D9" s="13" t="n"/>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>1.537702127213472</v>
+        <v>2.260066207470211</v>
       </c>
       <c r="C10" s="13" t="n"/>
       <c r="D10" s="13" t="n"/>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B11" s="7" t="n">
-        <v>0.1245001588188115</v>
+        <v>0.1605571430323578</v>
       </c>
       <c r="C11" s="13" t="n"/>
       <c r="D11" s="13" t="n"/>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>2.537702127213472</v>
+        <v>3.260066207470211</v>
       </c>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>80.21142715163893</v>
+        <v>70.41990170981731</v>
       </c>
       <c r="C14" s="13" t="n"/>
       <c r="D14" s="13" t="n"/>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B15" s="7" t="n">
-        <v>0.1067721409626316</v>
+        <v>0.0794577640368488</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.1262954284504376</v>
+        <v>0.08881256500423276</v>
       </c>
       <c r="C16" s="13" t="n"/>
       <c r="D16" s="13" t="n"/>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>0.6518708549163538</v>
+        <v>1.236925323371385</v>
       </c>
       <c r="C17" s="13" t="n"/>
       <c r="D17" s="13" t="n"/>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>0.09056713501858951</v>
+        <v>0.06108111151676566</v>
       </c>
       <c r="C18" s="13" t="n"/>
       <c r="D18" s="13" t="n"/>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>0.9090307306189541</v>
+        <v>1.798502154911666</v>
       </c>
       <c r="C19" s="13" t="n"/>
       <c r="D19" s="13" t="n"/>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>0.138002937010194</v>
+        <v>0.07285281981436084</v>
       </c>
       <c r="C20" s="13" t="n"/>
       <c r="D20" s="13" t="n"/>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0.01272250248914684</v>
+        <v>0.008641893803546562</v>
       </c>
       <c r="C21" s="13" t="n"/>
       <c r="D21" s="13" t="n"/>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>-0.3154697510959169</v>
+        <v>-0.1866756201340332</v>
       </c>
       <c r="C22" s="13" t="n"/>
       <c r="D22" s="13" t="n"/>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B23" s="7" t="n">
-        <v>-0.04663440923565154</v>
+        <v>-0.02569879959353949</v>
       </c>
       <c r="C23" s="13" t="n"/>
       <c r="D23" s="13" t="n"/>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B24" s="7" t="n">
-        <v>0.06901027358383428</v>
+        <v>0.1099909464295458</v>
       </c>
       <c r="C24" s="13" t="n"/>
       <c r="D24" s="13" t="n"/>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B25" s="7" t="n">
-        <v>0.2332930927233731</v>
+        <v>0.1336250678203171</v>
       </c>
       <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B26" s="7" t="n">
-        <v>0.9990417068279526</v>
+        <v>1.892435637520293</v>
       </c>
       <c r="C26" s="13" t="n"/>
       <c r="D26" s="13" t="n"/>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B27" s="7" t="n">
-        <v>-0.05186617816560638</v>
+        <v>0.04917134197878036</v>
       </c>
       <c r="C27" s="13" t="n"/>
       <c r="D27" s="13" t="n"/>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B28" s="7" t="n">
-        <v>0.6523512287436509</v>
+        <v>0.6085834893291577</v>
       </c>
       <c r="C28" s="13" t="n"/>
       <c r="D28" s="13" t="n"/>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B29" s="7" t="n">
-        <v>0.2620510006120572</v>
+        <v>0.2833890092135768</v>
       </c>
       <c r="C29" s="13" t="n"/>
       <c r="D29" s="13" t="n"/>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B30" s="5" t="n">
-        <v>0.06566431228859572</v>
+        <v>0.1063695026550746</v>
       </c>
       <c r="C30" s="13" t="n"/>
       <c r="D30" s="13" t="n"/>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>0.2532442309263214</v>
+        <v>0.1358659136993794</v>
       </c>
       <c r="C31" s="13" t="n"/>
       <c r="D31" s="13" t="n"/>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="B32" s="5" t="n">
-        <v>0.6494851280691472</v>
+        <v>1.187469357845201</v>
       </c>
       <c r="C32" s="13" t="n"/>
       <c r="D32" s="13" t="n"/>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>0.9647909269218471</v>
+        <v>2.019141913779022</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>1.028498487084603</v>
+        <v>1.799556343376295</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0.03363831435931836</v>
+        <v>0.03745393918635176</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B36" s="16" t="n">
-        <v>0.1200375835692349</v>
+        <v>0.06801725604193408</v>
       </c>
     </row>
   </sheetData>
@@ -1157,19 +1157,19 @@
         <v>2014</v>
       </c>
       <c r="B2" s="13" t="n">
-        <v>0.1715310000000003</v>
+        <v>0.484138000000001</v>
       </c>
       <c r="C2" s="13" t="n">
-        <v>0.05483751840577777</v>
+        <v>0.3462563148241569</v>
       </c>
       <c r="D2" s="13" t="n">
-        <v>2.415969119646956</v>
+        <v>3.79456871298359</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>3.11764225881339</v>
+        <v>5.847323316224499</v>
       </c>
       <c r="F2" s="13" t="n">
-        <v>0.4473684210526316</v>
+        <v>0.5789473684210527</v>
       </c>
     </row>
     <row r="3">
@@ -1177,19 +1177,19 @@
         <v>2015</v>
       </c>
       <c r="B3" s="13" t="n">
-        <v>0.7067555190601003</v>
+        <v>0.3172676664838447</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>-0.2253185498076616</v>
+        <v>-0.4322526401866488</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>2.532583765874886</v>
+        <v>3.705478305030963</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>2.739197832594107</v>
+        <v>3.897710965659793</v>
       </c>
       <c r="F3" s="13" t="n">
-        <v>0.4230769230769231</v>
+        <v>0.3461538461538461</v>
       </c>
     </row>
     <row r="4">
@@ -1197,16 +1197,16 @@
         <v>2016</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>-0.02360920162219327</v>
+        <v>-0.003082341904658308</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>0.2290329313668468</v>
+        <v>0.2446122244083558</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>-0.1837637540704568</v>
+        <v>-0.003966721596864693</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>0.2342436238396919</v>
+        <v>0.2985260555396225</v>
       </c>
       <c r="F4" s="13" t="n">
         <v>0.54</v>
@@ -1217,19 +1217,19 @@
         <v>2017</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>0.03036966465366517</v>
+        <v>0.162895892776789</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>0.1254946164385077</v>
+        <v>0.276195812006061</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>1.116122075404764</v>
+        <v>1.724443894755333</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>1.558687382637346</v>
+        <v>2.367752028690598</v>
       </c>
       <c r="F5" s="13" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.6274509803921569</v>
       </c>
     </row>
     <row r="6">
@@ -1237,16 +1237,16 @@
         <v>2018</v>
       </c>
       <c r="B6" s="13" t="n">
-        <v>-0.001055378278296777</v>
+        <v>0.004574089483962476</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>0.3155421935779281</v>
+        <v>0.3152416140800198</v>
       </c>
       <c r="D6" s="13" t="n">
-        <v>0.03822258906524179</v>
+        <v>0.1091277023207431</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>0.5965898393585388</v>
+        <v>0.6444112105340396</v>
       </c>
       <c r="F6" s="13" t="n">
         <v>0.6470588235294118</v>
@@ -1257,16 +1257,16 @@
         <v>2019</v>
       </c>
       <c r="B7" s="13" t="n">
-        <v>0.2021092044799704</v>
+        <v>0.180342924303932</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>-0.2007292932058307</v>
+        <v>-0.2196769665172625</v>
       </c>
       <c r="D7" s="13" t="n">
-        <v>1.606089656218967</v>
+        <v>1.904272031493974</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>0.7039522686975398</v>
+        <v>1.164013066136886</v>
       </c>
       <c r="F7" s="13" t="n">
         <v>0.4423076923076923</v>
@@ -1277,19 +1277,19 @@
         <v>2020</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>0.01995519147942689</v>
+        <v>0.1575633902760213</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>-0.4184342664545357</v>
+        <v>-0.3482988895317279</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>0.2135182587705501</v>
+        <v>1.550722152031566</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>-2.305826181604979</v>
+        <v>0.2294584943963298</v>
       </c>
       <c r="F8" s="13" t="n">
-        <v>0.3653846153846154</v>
+        <v>0.4038461538461539</v>
       </c>
     </row>
     <row r="9">
@@ -1297,19 +1297,19 @@
         <v>2021</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>-0.02502256662023436</v>
+        <v>0.02424457894725014</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>-0.1782702837557625</v>
+        <v>-0.1407180477013198</v>
       </c>
       <c r="D9" s="13" t="n">
-        <v>-0.1725536455615436</v>
+        <v>0.3680213122033427</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>-0.5653846808214815</v>
+        <v>0.07987814318492945</v>
       </c>
       <c r="F9" s="13" t="n">
-        <v>0.4807692307692308</v>
+        <v>0.4615384615384616</v>
       </c>
     </row>
     <row r="10">
@@ -1317,16 +1317,16 @@
         <v>2022</v>
       </c>
       <c r="B10" s="13" t="n">
-        <v>0.05642285188569555</v>
+        <v>0.02315002684929844</v>
       </c>
       <c r="C10" s="13" t="n">
-        <v>0.2051758735379766</v>
+        <v>0.1656425644554157</v>
       </c>
       <c r="D10" s="13" t="n">
-        <v>1.845764640870718</v>
+        <v>1.082219837208043</v>
       </c>
       <c r="E10" s="13" t="n">
-        <v>2.393106323890414</v>
+        <v>1.403845578421753</v>
       </c>
       <c r="F10" s="13" t="n">
         <v>0.52</v>
@@ -1433,31 +1433,31 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>-0.004878000000000271</v>
+        <v>-0.01179799999999986</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>0.006294705573788972</v>
+        <v>0.01081762635574512</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>0.01029872596581072</v>
+        <v>0.02941559247646386</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.01188891162292349</v>
+        <v>0.08682988500158073</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>0.00198588100147834</v>
+        <v>-0.003810981065893948</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>0.0149528154734051</v>
+        <v>0.04050566738016004</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.005915869591527567</v>
+        <v>0.01115507995538656</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.04052013975557078</v>
+        <v>0.1164559923095181</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.07510287310542796</v>
+        <v>0.134900686306372</v>
       </c>
     </row>
     <row r="3">
@@ -1465,40 +1465,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>0.01199285379558956</v>
+        <v>0.01158382845800077</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>0.08033782592669736</v>
+        <v>0.03802828159032301</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>0.06294834279075667</v>
+        <v>0.09611126119160196</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.07149488708395602</v>
+        <v>0.06023223207987383</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>0.1618148178868661</v>
+        <v>0.01980515644135483</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>-0.01690656077694452</v>
+        <v>0.003953517206354729</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>0.0007394110279075328</v>
+        <v>0.003864064737240769</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.01392807943755092</v>
+        <v>0.006837216548567948</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>0.002659336928406253</v>
+        <v>0.004482015113995041</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>0.09923764543758229</v>
+        <v>0.02051624466085245</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.06148070828849961</v>
+        <v>0.004093317648528494</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>0.01091597966759172</v>
+        <v>0.0134589983432214</v>
       </c>
     </row>
     <row r="4">
@@ -1506,40 +1506,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>-0.05844811521982585</v>
+        <v>-0.005868521186880638</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>-0.01093777969233745</v>
+        <v>0.003512158778802066</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>0.03393236619502016</v>
+        <v>0.01027553887487409</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.02393051051790396</v>
+        <v>-0.024796982949156</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>0.001653390408207445</v>
+        <v>0.001342672365564956</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.01341301700707032</v>
+        <v>0.009010867819642998</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.01636205697126547</v>
+        <v>0.004105675164914446</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>0.004848524862099968</v>
+        <v>0.002243732783429264</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>0.002778556300541579</v>
+        <v>-0.02243827937705123</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>0.005999343757790543</v>
+        <v>0.006121581349177285</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>-0.0009550865098741923</v>
+        <v>0.03188395841919678</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>-0.005643300617809266</v>
+        <v>-0.01711864184543432</v>
       </c>
     </row>
     <row r="5">
@@ -1547,40 +1547,40 @@
         <v>2017</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>-0.0004579190804741007</v>
+        <v>-4.002091349264436e-05</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.003279157288860413</v>
+        <v>0.02435318740850678</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.001559902237952882</v>
+        <v>0.005170898107309752</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.002543770134568302</v>
+        <v>0.004219888692213347</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>-0.002738754650007724</v>
+        <v>-0.001785965950030666</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.008500499624325197</v>
+        <v>0.03862182379122214</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.009342797518433033</v>
+        <v>0.02734382291801785</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>0.007048972494625216</v>
+        <v>0.01377997786966345</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>0.004583323588815524</v>
+        <v>0.003764329360206542</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.007286684551099043</v>
+        <v>0.05343331457693012</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>-0.01090529647191996</v>
+        <v>-0.01495969531246955</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>8.89917680131358e-05</v>
+        <v>1.456035022484592e-05</v>
       </c>
     </row>
     <row r="6">
@@ -1588,40 +1588,40 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.006906439199423575</v>
+        <v>0.006020837763880404</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.01007803528423179</v>
+        <v>-0.01846754627412339</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0.009585647662115004</v>
+        <v>0.00743699731903491</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.02939879000207957</v>
+        <v>-0.01572975600582649</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.04054837440559789</v>
+        <v>0.03584659011282954</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>-0.01590739452705869</v>
+        <v>-0.01658264197302106</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.02427959935107316</v>
+        <v>-0.005372443720942588</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>0.0004166906510003621</v>
+        <v>0.0006773509927888721</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>0.0008513650100181458</v>
+        <v>0.001049783376622315</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>0.001266294833527803</v>
+        <v>0.002944036228827995</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>0.03110210734802576</v>
+        <v>0.00877165412192471</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>-0.009756676885412818</v>
+        <v>-0.0008631751152800016</v>
       </c>
     </row>
     <row r="7">
@@ -1629,40 +1629,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>-0.0002677312217401751</v>
+        <v>-0.003480278931794478</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.09967644628510586</v>
+        <v>0.1134899874609117</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>0.05971480872575596</v>
+        <v>0.02447590507136033</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.01440217333267868</v>
+        <v>-0.001677202144005574</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>-0.009491658743265741</v>
+        <v>-0.003074811776626052</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.01378024139122869</v>
+        <v>0.01095361600153377</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.009590740287231725</v>
+        <v>-0.004894459614564695</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>0.007335852571633827</v>
+        <v>0.008314350841217344</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.001413529448110351</v>
+        <v>-0.0005886024671553081</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.001555919503515968</v>
+        <v>-0.003961046644540778</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.007626511944853198</v>
+        <v>-0.02566273254220219</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.02327606839598206</v>
+        <v>0.06041148450718437</v>
       </c>
     </row>
     <row r="8">
@@ -1670,40 +1670,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>0.01653162842376976</v>
+        <v>0.03477064967800225</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.04102549901325392</v>
+        <v>-0.04000635769286209</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>-0.04298698066847162</v>
+        <v>0.001581492566386178</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.005490375313945473</v>
+        <v>0.01450529049476201</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.01391202730153762</v>
+        <v>0.007556116059760587</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>0.02956721655973027</v>
+        <v>0.06112653093481635</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.0265620250553078</v>
+        <v>0.02732431303899285</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.001814485159397194</v>
+        <v>0.009481960914222931</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.01580225684051373</v>
+        <v>-0.009143870162496626</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.02051075463765084</v>
+        <v>-0.01325080632280562</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.02910682187794222</v>
+        <v>0.03787899912470061</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>0.02462144604678262</v>
+        <v>0.01926020044579158</v>
       </c>
     </row>
     <row r="9">
@@ -1711,40 +1711,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>-0.01359314169564652</v>
+        <v>0.006733140869097598</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.02808801292008267</v>
+        <v>-0.02240481354812995</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>-0.02237536525290207</v>
+        <v>-0.003824070544760527</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>0.008351773983310107</v>
+        <v>0.01449924933220181</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>0.01998371480990269</v>
+        <v>0.01436183432535931</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.01081587248655602</v>
+        <v>-0.001331799321419247</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.01424229783683928</v>
+        <v>0.004041562886533567</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.01956227967097535</v>
+        <v>0.00635823658550283</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.03588932799816236</v>
+        <v>-0.009059050383172562</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>0.0111056889117731</v>
+        <v>0.002158412295621526</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>0.008041853954527056</v>
+        <v>0.009456020490958394</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.006235129519788662</v>
+        <v>0.003581177933519308</v>
       </c>
     </row>
     <row r="10">
@@ -1752,25 +1752,25 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>-0.003609244160996505</v>
+        <v>-0.01016193375206298</v>
       </c>
       <c r="C10" s="15" t="n">
-        <v>0.001013162759897268</v>
+        <v>0.0009603909288871115</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>0.0005605362449503382</v>
+        <v>0.001109930999922737</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>-0.01178218660197072</v>
+        <v>0.001159326008865369</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>0.02033416377587649</v>
+        <v>0.00662869719584025</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>0.05205093517679615</v>
+        <v>0.02650438997894922</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>-0.002086113015025037</v>
+        <v>-0.002889726118316061</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>
@@ -1889,31 +1889,31 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>0.06020703217410195</v>
+        <v>0.05303748836498468</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>-0.02472851092685457</v>
+        <v>-0.02036636991716956</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>-0.05547908125706935</v>
+        <v>-0.03578597204278444</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.05334818047403567</v>
+        <v>0.1326900810185165</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.05715187225551832</v>
+        <v>-0.0615830985260466</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>-0.06402103581740626</v>
+        <v>-0.03886816703200513</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.02273662199426263</v>
+        <v>0.02889706479835041</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>-0.001261234175961801</v>
+        <v>0.07212083881606079</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.1375284921089839</v>
+        <v>0.2009951235195717</v>
       </c>
     </row>
     <row r="3">
@@ -1921,40 +1921,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.1202095969806958</v>
+        <v>-0.121512398225377</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>-0.06078513843707289</v>
+        <v>-0.09910006176259711</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>-0.1287923841944757</v>
+        <v>-0.1009281134119672</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>-0.1316750190789007</v>
+        <v>-0.1419827509703667</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>-0.06917950846255827</v>
+        <v>-0.1913514853335447</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.1820770666118181</v>
+        <v>0.1939566317145067</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>0.08887814994996779</v>
+        <v>0.09227697665199619</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.2437364745831627</v>
+        <v>0.2265012017187473</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>-0.06622581361476532</v>
+        <v>-0.06529716314033851</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>-0.08282500546430993</v>
+        <v>-0.1558154096111377</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>-0.02070576302449223</v>
+        <v>-0.08278656441376298</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.008372933676692562</v>
+        <v>-0.006604927969308783</v>
       </c>
     </row>
     <row r="4">
@@ -1962,40 +1962,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>0.2369466150105339</v>
+        <v>0.3010282688685906</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0.03526084156626608</v>
+        <v>0.04855317335101117</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>-0.1421216165618807</v>
+        <v>-0.1656615307161786</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0.01699151109158237</v>
+        <v>0.01491073481865168</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>-0.01709444404754934</v>
+        <v>-0.01739160100215953</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>-0.02231246232075501</v>
+        <v>-0.02618887075788434</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.06243098987712004</v>
+        <v>0.05079089022258376</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.02927255706580112</v>
+        <v>-0.03157740804929554</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>0.02058265687970051</v>
+        <v>-0.004150796598152984</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>2.171202952672147e-05</v>
+        <v>0.0002049351635711183</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>-0.01290406109779951</v>
+        <v>0.01983845921372396</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0.1017748082279577</v>
+        <v>0.08927209946258685</v>
       </c>
     </row>
     <row r="5">
@@ -2003,40 +2003,40 @@
         <v>2017</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.03636242583920457</v>
+        <v>0.03681289508065677</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>-0.01881613632680323</v>
+        <v>0.002151102072414979</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.01055952131445381</v>
+        <v>0.01478715768855587</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.03150386983806008</v>
+        <v>0.03362351387573237</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>0.04458721656633102</v>
+        <v>0.04554355079799488</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>-0.02337144189046558</v>
+        <v>0.005982808161456354</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.05178584790426144</v>
+        <v>0.07148232001983823</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.05624684930270774</v>
+        <v>-0.04949604777799643</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>-0.005605597334913948</v>
+        <v>-0.005802446236996883</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.003905642121755371</v>
+        <v>0.05013095672414614</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>0.04192296127858164</v>
+        <v>0.03869837487894934</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>0.00809524711214582</v>
+        <v>0.008019996254844841</v>
       </c>
     </row>
     <row r="6">
@@ -2044,40 +2044,40 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.01386032964287565</v>
+        <v>0.01343063429078817</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.02769688159204575</v>
+        <v>-0.035637206356116</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>-0.07362718126462486</v>
+        <v>-0.07743748899132674</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>0.01786364946995977</v>
+        <v>0.03190929047198487</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.07471869838911149</v>
+        <v>0.06984563316531678</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>0.05991673912426498</v>
+        <v>0.05918528191194294</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.0002995992402524683</v>
+        <v>0.0187974122195691</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>0.0801117600375103</v>
+        <v>0.08038932514173114</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>0.01493877971825164</v>
+        <v>0.01513453750164451</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>0.0944244532848153</v>
+        <v>0.096254887286636</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.01399926328244294</v>
+        <v>-0.0383467176362966</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.05061010411629496</v>
+        <v>0.05905594790900559</v>
       </c>
     </row>
     <row r="7">
@@ -2085,40 +2085,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>0.0154365447690834</v>
+        <v>0.0123016077827347</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>-0.1245221369430103</v>
+        <v>-0.1135969538921368</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>-0.04326031889797111</v>
+        <v>-0.08005158123757572</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.05478156460168715</v>
+        <v>0.03609136776962374</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>0.07127800238869053</v>
+        <v>0.07742052358440277</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>-0.008364701422967524</v>
+        <v>-0.0115106593947174</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.04943410520198444</v>
+        <v>-0.04504279085270846</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>-0.02132221999582029</v>
+        <v>-0.02030547898527513</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>-0.01152894622974565</v>
+        <v>-0.01276233361973778</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.02957311162765441</v>
+        <v>-0.03188797914250685</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.005770428887713508</v>
+        <v>-0.02301167871126797</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>-0.05474268757485268</v>
+        <v>-0.01937445955321015</v>
       </c>
     </row>
     <row r="8">
@@ -2126,40 +2126,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>-0.05482828171405196</v>
+        <v>-0.03678754323126221</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.1155204925997976</v>
+        <v>-0.1191764738584175</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>0.05055277272062453</v>
+        <v>0.09375391539602429</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>-0.09485085329996135</v>
+        <v>-0.08688406627115919</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.003088871637085822</v>
+        <v>-0.002962470049111321</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>-0.121468837902671</v>
+        <v>-0.09389187808343269</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>-0.1125820462616446</v>
+        <v>-0.1137951579220833</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>0.01877202373257991</v>
+        <v>0.02834629095394381</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>0.03686252491483688</v>
+        <v>0.04356539320654274</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.05476607347144213</v>
+        <v>-0.04794399502139846</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.03472849349929374</v>
+        <v>0.04356611490972218</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>-0.09453096178991038</v>
+        <v>-0.0990000751161676</v>
       </c>
     </row>
     <row r="9">
@@ -2167,40 +2167,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>-0.06915312348691693</v>
+        <v>-0.05154092255549036</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>0.03961424477541753</v>
+        <v>0.04329633365784291</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>0.02118642416161398</v>
+        <v>0.03939299018040598</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>-0.10355898188656</v>
+        <v>-0.09838990080379795</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>-0.05094452438774832</v>
+        <v>-0.05593623087185029</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.0630150147222841</v>
+        <v>-0.05385364993566566</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.01446610907016788</v>
+        <v>0.004387813917884342</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.08558332809824276</v>
+        <v>0.07158344260815763</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.04871563068555962</v>
+        <v>-0.02262843978491202</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.02272220557063453</v>
+        <v>-0.03160571726588568</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>-0.03502325490290048</v>
+        <v>-0.03357399923808102</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.05579984696262241</v>
+        <v>0.05376376749470557</v>
       </c>
     </row>
     <row r="10">
@@ -2208,25 +2208,25 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>0.1320672577510356</v>
+        <v>0.1247240821835103</v>
       </c>
       <c r="C10" s="15" t="n">
-        <v>0.005303563543353818</v>
+        <v>0.005251067499300488</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>0.07068776994060677</v>
+        <v>0.07126960836669793</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0.1175922389565796</v>
+        <v>0.1322619314149822</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>-0.02054801573260179</v>
+        <v>-0.0340133526152091</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>-0.1037203250576294</v>
+        <v>-0.126493135166326</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>0.008110317919268528</v>
+        <v>0.007306704815977616</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>

--- a/backtest/bt_report/bs_voq_rs_m_ind/single_run/summary.xlsx
+++ b/backtest/bt_report/bs_voq_rs_m_ind/single_run/summary.xlsx
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>326006620.7470211</v>
+        <v>292777081.3887216</v>
       </c>
       <c r="C8" s="13" t="n"/>
       <c r="D8" s="13" t="n"/>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B9" s="7" t="n">
-        <v>107.8008210472763</v>
+        <v>53989808.34762161</v>
       </c>
       <c r="C9" s="13" t="n"/>
       <c r="D9" s="13" t="n"/>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>2.260066207470211</v>
+        <v>1.927770813887216</v>
       </c>
       <c r="C10" s="13" t="n"/>
       <c r="D10" s="13" t="n"/>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B11" s="7" t="n">
-        <v>0.1605571430323578</v>
+        <v>0.1449424871774638</v>
       </c>
       <c r="C11" s="13" t="n"/>
       <c r="D11" s="13" t="n"/>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>3.260066207470211</v>
+        <v>2.927770813887216</v>
       </c>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>70.41990170981731</v>
+        <v>62.47633874072062</v>
       </c>
       <c r="C14" s="13" t="n"/>
       <c r="D14" s="13" t="n"/>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B15" s="7" t="n">
-        <v>0.0794577640368488</v>
+        <v>0.1157610875072875</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.08881256500423276</v>
+        <v>0.08687694043328255</v>
       </c>
       <c r="C16" s="13" t="n"/>
       <c r="D16" s="13" t="n"/>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>1.236925323371385</v>
+        <v>1.106492182543812</v>
       </c>
       <c r="C17" s="13" t="n"/>
       <c r="D17" s="13" t="n"/>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>0.06108111151676566</v>
+        <v>0.05890437207516766</v>
       </c>
       <c r="C18" s="13" t="n"/>
       <c r="D18" s="13" t="n"/>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>1.798502154911666</v>
+        <v>1.631944320025721</v>
       </c>
       <c r="C19" s="13" t="n"/>
       <c r="D19" s="13" t="n"/>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>0.07285281981436084</v>
+        <v>0.07637122050322349</v>
       </c>
       <c r="C20" s="13" t="n"/>
       <c r="D20" s="13" t="n"/>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0.008641893803546562</v>
+        <v>0.008489485782254941</v>
       </c>
       <c r="C21" s="13" t="n"/>
       <c r="D21" s="13" t="n"/>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>-0.1866756201340332</v>
+        <v>-0.2714761417563331</v>
       </c>
       <c r="C22" s="13" t="n"/>
       <c r="D22" s="13" t="n"/>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B23" s="7" t="n">
-        <v>-0.02569879959353949</v>
+        <v>-0.0391227386732973</v>
       </c>
       <c r="C23" s="13" t="n"/>
       <c r="D23" s="13" t="n"/>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B24" s="7" t="n">
-        <v>0.1099909464295458</v>
+        <v>0.09453772295360623</v>
       </c>
       <c r="C24" s="13" t="n"/>
       <c r="D24" s="13" t="n"/>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B25" s="7" t="n">
-        <v>0.1336250678203171</v>
+        <v>0.1303572644379702</v>
       </c>
       <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B26" s="7" t="n">
-        <v>1.892435637520293</v>
+        <v>1.733231916039792</v>
       </c>
       <c r="C26" s="13" t="n"/>
       <c r="D26" s="13" t="n"/>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B27" s="7" t="n">
-        <v>0.04917134197878036</v>
+        <v>0.0007352656250805552</v>
       </c>
       <c r="C27" s="13" t="n"/>
       <c r="D27" s="13" t="n"/>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B28" s="7" t="n">
-        <v>0.6085834893291577</v>
+        <v>0.6320900052855499</v>
       </c>
       <c r="C28" s="13" t="n"/>
       <c r="D28" s="13" t="n"/>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B29" s="7" t="n">
-        <v>0.2833890092135768</v>
+        <v>0.2839281796893617</v>
       </c>
       <c r="C29" s="13" t="n"/>
       <c r="D29" s="13" t="n"/>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B30" s="5" t="n">
-        <v>0.1063695026550746</v>
+        <v>0.09112925838434643</v>
       </c>
       <c r="C30" s="13" t="n"/>
       <c r="D30" s="13" t="n"/>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>0.1358659136993794</v>
+        <v>0.136237286277189</v>
       </c>
       <c r="C31" s="13" t="n"/>
       <c r="D31" s="13" t="n"/>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="B32" s="5" t="n">
-        <v>1.187469357845201</v>
+        <v>1.033617395051125</v>
       </c>
       <c r="C32" s="13" t="n"/>
       <c r="D32" s="13" t="n"/>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>2.019141913779022</v>
+        <v>1.787305149925937</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>1.799556343376295</v>
+        <v>1.597819669556444</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0.03745393918635176</v>
+        <v>0.03746324345498691</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B36" s="16" t="n">
-        <v>0.06801725604193408</v>
+        <v>0.07119034917719526</v>
       </c>
     </row>
   </sheetData>
@@ -1157,19 +1157,19 @@
         <v>2014</v>
       </c>
       <c r="B2" s="13" t="n">
-        <v>0.484138000000001</v>
+        <v>0.4479189999999974</v>
       </c>
       <c r="C2" s="13" t="n">
-        <v>0.3462563148241569</v>
+        <v>0.3130243093575036</v>
       </c>
       <c r="D2" s="13" t="n">
-        <v>3.79456871298359</v>
+        <v>3.525346098483614</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>5.847323316224499</v>
+        <v>5.275359041628039</v>
       </c>
       <c r="F2" s="13" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.5263157894736842</v>
       </c>
     </row>
     <row r="3">
@@ -1177,16 +1177,16 @@
         <v>2015</v>
       </c>
       <c r="B3" s="13" t="n">
-        <v>0.3172676664838447</v>
+        <v>0.3495167892679084</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>-0.4322526401866488</v>
+        <v>-0.4178841255571381</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>3.705478305030963</v>
+        <v>3.919372908842837</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>3.897710965659793</v>
+        <v>4.255994455144922</v>
       </c>
       <c r="F3" s="13" t="n">
         <v>0.3461538461538461</v>
@@ -1197,19 +1197,19 @@
         <v>2016</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>-0.003082341904658308</v>
+        <v>-0.0217319322351019</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>0.2446122244083558</v>
+        <v>0.2210456844241066</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>-0.003966721596864693</v>
+        <v>-0.3051886694336023</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>0.2985260555396225</v>
+        <v>0.01838586713772247</v>
       </c>
       <c r="F4" s="13" t="n">
-        <v>0.54</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -1217,19 +1217,19 @@
         <v>2017</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>0.162895892776789</v>
+        <v>0.1432990483524415</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>0.276195812006061</v>
+        <v>0.2531791307334832</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>1.724443894755333</v>
+        <v>1.76121120371384</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>2.367752028690598</v>
+        <v>2.351548027156549</v>
       </c>
       <c r="F5" s="13" t="n">
-        <v>0.6274509803921569</v>
+        <v>0.6078431372549019</v>
       </c>
     </row>
     <row r="6">
@@ -1237,16 +1237,16 @@
         <v>2018</v>
       </c>
       <c r="B6" s="13" t="n">
-        <v>0.004574089483962476</v>
+        <v>0.001393765211417877</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>0.3152416140800198</v>
+        <v>0.3110693399428809</v>
       </c>
       <c r="D6" s="13" t="n">
-        <v>0.1091277023207431</v>
+        <v>0.0539533347122105</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>0.6444112105340396</v>
+        <v>0.574642920818068</v>
       </c>
       <c r="F6" s="13" t="n">
         <v>0.6470588235294118</v>
@@ -1257,19 +1257,19 @@
         <v>2019</v>
       </c>
       <c r="B7" s="13" t="n">
-        <v>0.180342924303932</v>
+        <v>0.1966960826468288</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>-0.2196769665172625</v>
+        <v>-0.2084637998286941</v>
       </c>
       <c r="D7" s="13" t="n">
-        <v>1.904272031493974</v>
+        <v>2.013085637878242</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>1.164013066136886</v>
+        <v>1.338100566868957</v>
       </c>
       <c r="F7" s="13" t="n">
-        <v>0.4423076923076923</v>
+        <v>0.4230769230769231</v>
       </c>
     </row>
     <row r="8">
@@ -1277,16 +1277,16 @@
         <v>2020</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>0.1575633902760213</v>
+        <v>0.08487258878616304</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>-0.3482988895317279</v>
+        <v>-0.3899107000217102</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>1.550722152031566</v>
+        <v>0.8847428997110455</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>0.2294584943963298</v>
+        <v>-0.6513434277375271</v>
       </c>
       <c r="F8" s="13" t="n">
         <v>0.4038461538461539</v>
@@ -1297,16 +1297,16 @@
         <v>2021</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>0.02424457894725014</v>
+        <v>0.009716887597275658</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>-0.1407180477013198</v>
+        <v>-0.153561132070988</v>
       </c>
       <c r="D9" s="13" t="n">
-        <v>0.3680213122033427</v>
+        <v>0.1706771549951142</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>0.07987814318492945</v>
+        <v>-0.1448439852943695</v>
       </c>
       <c r="F9" s="13" t="n">
         <v>0.4615384615384616</v>
@@ -1317,16 +1317,16 @@
         <v>2022</v>
       </c>
       <c r="B10" s="13" t="n">
-        <v>0.02315002684929844</v>
+        <v>0.02053926194042589</v>
       </c>
       <c r="C10" s="13" t="n">
-        <v>0.1656425644554157</v>
+        <v>0.162334315911169</v>
       </c>
       <c r="D10" s="13" t="n">
-        <v>1.082219837208043</v>
+        <v>1.212656936543108</v>
       </c>
       <c r="E10" s="13" t="n">
-        <v>1.403845578421753</v>
+        <v>1.575437761324219</v>
       </c>
       <c r="F10" s="13" t="n">
         <v>0.52</v>
@@ -1433,31 +1433,31 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>-0.01179799999999986</v>
+        <v>-0.012069</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>0.01081762635574512</v>
+        <v>0.01104733022852722</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>0.02941559247646386</v>
+        <v>0.02605709594581729</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.08682988500158073</v>
+        <v>0.08261226767830543</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.003810981065893948</v>
+        <v>-0.0008544089031574664</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>0.04050566738016004</v>
+        <v>0.0273265794147699</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.01115507995538656</v>
+        <v>-0.005476408943834943</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.1164559923095181</v>
+        <v>0.1176941114980112</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.134900686306372</v>
+        <v>0.143737450175915</v>
       </c>
     </row>
     <row r="3">
@@ -1465,40 +1465,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>0.01158382845800077</v>
+        <v>0.01744089275712235</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>0.03802828159032301</v>
+        <v>0.0217720673485513</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>0.09611126119160196</v>
+        <v>0.09677421497881444</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.06023223207987383</v>
+        <v>0.07219935611463968</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>0.01980515644135483</v>
+        <v>0.02690397771889863</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.003953517206354729</v>
+        <v>0.003040050436450059</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>0.003864064737240769</v>
+        <v>0.003873832516389397</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.006837216548567948</v>
+        <v>0.005253720383625815</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>0.004482015113995041</v>
+        <v>0.00450123862869245</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>0.02051624466085245</v>
+        <v>0.01787557758275571</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.004093317648528494</v>
+        <v>0.02225106816821465</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>0.0134589983432214</v>
+        <v>0.01605361709473918</v>
       </c>
     </row>
     <row r="4">
@@ -1506,40 +1506,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>-0.005868521186880638</v>
+        <v>-0.00674107506124666</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0.003512158778802066</v>
+        <v>0.003876198656340479</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>0.01027553887487409</v>
+        <v>0.006022043357891471</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.024796982949156</v>
+        <v>-0.02566636480746876</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>0.001342672365564956</v>
+        <v>0.00134204853262232</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.009010867819642998</v>
+        <v>0.01305423227162716</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.004105675164914446</v>
+        <v>-0.009095676753244519</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>0.002243732783429264</v>
+        <v>0.006091141564213975</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.02243827937705123</v>
+        <v>-0.02237380175482018</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>0.006121581349177285</v>
+        <v>0.004919090286068073</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.03188395841919678</v>
+        <v>0.02113635093984345</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>-0.01711864184543432</v>
+        <v>-0.01342935164927617</v>
       </c>
     </row>
     <row r="5">
@@ -1547,40 +1547,40 @@
         <v>2017</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>-4.002091349264436e-05</v>
+        <v>-4.028193167038285e-05</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.02435318740850678</v>
+        <v>0.01555572994323673</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.005170898107309752</v>
+        <v>0.009089298077873842</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.004219888692213347</v>
+        <v>0.001136904312170062</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>-0.001785965950030666</v>
+        <v>-0.0002284484626896566</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.03862182379122214</v>
+        <v>0.03661417101948472</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.02734382291801785</v>
+        <v>0.03495928198926057</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>0.01377997786966345</v>
+        <v>0.007818130646692012</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>0.003764329360206542</v>
+        <v>0.002403427726640261</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.05343331457693012</v>
+        <v>0.0241587701366226</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>-0.01495969531246955</v>
+        <v>0.004178611519165543</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>1.456035022484592e-05</v>
+        <v>1.464252784888487e-05</v>
       </c>
     </row>
     <row r="6">
@@ -1588,40 +1588,40 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.006020837763880404</v>
+        <v>0.004209665116564398</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.01846754627412339</v>
+        <v>-0.01997997855691613</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0.00743699731903491</v>
+        <v>0.00631626029036636</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.01572975600582649</v>
+        <v>-0.01685468791798861</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.03584659011282954</v>
+        <v>0.0388335370550259</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>-0.01658264197302106</v>
+        <v>-0.01589613745438367</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.005372443720942588</v>
+        <v>-0.005824221590715384</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>0.0006773509927888721</v>
+        <v>0.0006773852282850878</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>0.001049783376622315</v>
+        <v>0.001049813949125289</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>0.002944036228827995</v>
+        <v>0.002943966323019298</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>0.00877165412192471</v>
+        <v>0.01024418239145697</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>-0.0008631751152800016</v>
+        <v>-0.003010794031439668</v>
       </c>
     </row>
     <row r="7">
@@ -1629,40 +1629,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>-0.003480278931794478</v>
+        <v>-0.005038627036960341</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.1134899874609117</v>
+        <v>0.1195720162794733</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>0.02447590507136033</v>
+        <v>0.0276979937075188</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>-0.001677202144005574</v>
+        <v>-0.004613321955029837</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>-0.003074811776626052</v>
+        <v>-0.00293408239249815</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.01095361600153377</v>
+        <v>0.009706902695298725</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.004894459614564695</v>
+        <v>0.006756514541861547</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>0.008314350841217344</v>
+        <v>0.008158406252312789</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>-0.0005886024671553081</v>
+        <v>0.005392438107243436</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.003961046644540778</v>
+        <v>-0.003934129579197698</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.02566273254220219</v>
+        <v>-0.03241909822639177</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.06041148450718437</v>
+        <v>0.06068126802506635</v>
       </c>
     </row>
     <row r="8">
@@ -1670,40 +1670,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>0.03477064967800225</v>
+        <v>0.03705897109578915</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.04000635769286209</v>
+        <v>-0.03843532643573289</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>0.001581492566386178</v>
+        <v>0.005651268596652548</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.01450529049476201</v>
+        <v>0.005809506222431482</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.007556116059760587</v>
+        <v>0.002358759302449442</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>0.06112653093481635</v>
+        <v>0.02606430668528814</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.02732431303899285</v>
+        <v>0.02011602240650978</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>0.009481960914222931</v>
+        <v>0.00904767093552894</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.009143870162496626</v>
+        <v>-0.008363673551410988</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.01325080632280562</v>
+        <v>-0.01451557535117942</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.03787899912470061</v>
+        <v>0.03303618440430944</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>0.01926020044579158</v>
+        <v>0.00636817012956592</v>
       </c>
     </row>
     <row r="9">
@@ -1711,40 +1711,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>0.006733140869097598</v>
+        <v>0.004485719082414574</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.02240481354812995</v>
+        <v>-0.02278078643748571</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>-0.003824070544760527</v>
+        <v>-0.002727532191118986</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>0.01449924933220181</v>
+        <v>0.01745584266120104</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>0.01436183432535931</v>
+        <v>0.01869457424824494</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.001331799321419247</v>
+        <v>-0.02050113500133222</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.004041562886533567</v>
+        <v>0.00843073752131418</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.00635823658550283</v>
+        <v>0.007219964312817684</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.009059050383172562</v>
+        <v>-0.008872834788429595</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>0.002158412295621526</v>
+        <v>0.0004323457978379075</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>0.009456020490958394</v>
+        <v>0.007720841489791352</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.003581177933519308</v>
+        <v>0.001056940810616913</v>
       </c>
     </row>
     <row r="10">
@@ -1752,25 +1752,25 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>-0.01016193375206298</v>
+        <v>-0.004230968050927597</v>
       </c>
       <c r="C10" s="15" t="n">
-        <v>0.0009603909288871115</v>
+        <v>0.0009601958057332549</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>0.001109930999922737</v>
+        <v>0.001110002895660323</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0.001159326008865369</v>
+        <v>0.001184576678896043</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>0.00662869719584025</v>
+        <v>0.007662550501270626</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>0.02650438997894922</v>
+        <v>0.01629098282604713</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>-0.002889726118316061</v>
+        <v>-0.002471869073732313</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>
@@ -1889,31 +1889,31 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>0.05303748836498468</v>
+        <v>0.05275735896453071</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>-0.02036636991716956</v>
+        <v>-0.02014115127716998</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>-0.03578597204278444</v>
+        <v>-0.03909645688505947</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.1326900810185165</v>
+        <v>0.1281238983614639</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.0615830985260466</v>
+        <v>-0.05877529812350435</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>-0.03886816703200513</v>
+        <v>-0.05115445487773207</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.02889706479835041</v>
+        <v>0.01184290386348219</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.07212083881606079</v>
+        <v>0.07334934338976051</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.2009951235195717</v>
+        <v>0.2106018773126483</v>
       </c>
     </row>
     <row r="3">
@@ -1921,40 +1921,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.121512398225377</v>
+        <v>-0.1163836475138097</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>-0.09910006176259711</v>
+        <v>-0.1136018244639085</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>-0.1009281134119672</v>
+        <v>-0.1002256862644658</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>-0.1419827509703667</v>
+        <v>-0.1321199145236296</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>-0.1913514853335447</v>
+        <v>-0.1854484651814987</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.1939566317145067</v>
+        <v>0.1928883507301806</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>0.09227697665199619</v>
+        <v>0.09228755735983185</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.2265012017187473</v>
+        <v>0.2247019246965558</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>-0.06529716314033851</v>
+        <v>-0.06527548719434295</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>-0.1558154096111377</v>
+        <v>-0.1581357292607324</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>-0.08278656441376298</v>
+        <v>-0.06556857171279817</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.006604927969308783</v>
+        <v>-0.00421717142975464</v>
       </c>
     </row>
     <row r="4">
@@ -1962,40 +1962,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>0.3010282688685906</v>
+        <v>0.2999735774101293</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0.04855317335101117</v>
+        <v>0.048943545989375</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>-0.1656615307161786</v>
+        <v>-0.1691790425152909</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0.01491073481865168</v>
+        <v>0.01406434017217584</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>-0.01739160100215953</v>
+        <v>-0.01739222661969941</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>-0.02618887075788434</v>
+        <v>-0.02270610695465725</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.05079089022258376</v>
+        <v>0.03729123451731753</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.03157740804929554</v>
+        <v>-0.0278987006907524</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.004150796598152984</v>
+        <v>-0.004279498301931306</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>0.0002049351635711183</v>
+        <v>-0.0009780023526932968</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.01983845921372396</v>
+        <v>0.009310481418361549</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0.08927209946258685</v>
+        <v>0.09324480674821012</v>
       </c>
     </row>
     <row r="5">
@@ -2003,40 +2003,40 @@
         <v>2017</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.03681289508065677</v>
+        <v>0.03681259586118601</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.002151102072414979</v>
+        <v>-0.006521937370498776</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.01478715768855587</v>
+        <v>0.01888459947598919</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.03362351387573237</v>
+        <v>0.03025746733724888</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>0.04554355079799488</v>
+        <v>0.04717512451636519</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.005982808161456354</v>
+        <v>0.004026667884011292</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.07148232001983823</v>
+        <v>0.07900710969157032</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.04949604777799643</v>
+        <v>-0.05527960427344625</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>-0.005802446236996883</v>
+        <v>-0.007180812604969278</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.05013095672414614</v>
+        <v>0.0209778472253177</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>0.03869837487894934</v>
+        <v>0.05836631547184745</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>0.008019996254844841</v>
+        <v>0.008020084910442815</v>
       </c>
     </row>
     <row r="6">
@@ -2044,40 +2044,40 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.01343063429078817</v>
+        <v>0.01164145061020383</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.035637206356116</v>
+        <v>-0.03708474539898798</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>-0.07743748899132674</v>
+        <v>-0.07847696460595266</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>0.03190929047198487</v>
+        <v>0.03074460755108022</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.06984563316531678</v>
+        <v>0.07287598302297416</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>0.05918528191194294</v>
+        <v>0.05988406643860067</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>0.0187974122195691</v>
+        <v>0.0183414274614504</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>0.08038932514173114</v>
+        <v>0.0803893568227172</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>0.01513453750164451</v>
+        <v>0.0151346003023729</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>0.096254887286636</v>
+        <v>0.09625480195386626</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.0383467176362966</v>
+        <v>-0.03694367201253246</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.05905594790900559</v>
+        <v>0.05678170727875642</v>
       </c>
     </row>
     <row r="7">
@@ -2085,40 +2085,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>0.0123016077827347</v>
+        <v>0.01065893170301901</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>-0.1135969538921368</v>
+        <v>-0.1086084651606725</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>-0.08005158123757572</v>
+        <v>-0.0768544472659326</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.03609136776962374</v>
+        <v>0.03311575261548794</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>0.07742052358440277</v>
+        <v>0.07756138394298895</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>-0.0115106593947174</v>
+        <v>-0.01274947206914734</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.04504279085270846</v>
+        <v>-0.03409261936590924</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>-0.02030547898527513</v>
+        <v>-0.02044994258992683</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>-0.01276233361973778</v>
+        <v>-0.006455296029086011</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.03188797914250685</v>
+        <v>-0.03186322567114908</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.02301167871126797</v>
+        <v>-0.02992423512989517</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>-0.01937445955321015</v>
+        <v>-0.01911702901005485</v>
       </c>
     </row>
     <row r="8">
@@ -2126,40 +2126,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>-0.03678754323126221</v>
+        <v>-0.03452022709502678</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.1191764738584175</v>
+        <v>-0.1173301320726412</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>0.09375391539602429</v>
+        <v>0.09824224840417051</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>-0.08688406627115919</v>
+        <v>-0.09485352698092087</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>-0.002962470049111321</v>
+        <v>-0.008271243256851579</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>-0.09389187808343269</v>
+        <v>-0.1243321204422537</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>-0.1137951579220833</v>
+        <v>-0.1200126856265347</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>0.02834629095394381</v>
+        <v>0.02787705343925273</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>0.04356539320654274</v>
+        <v>0.04437153937089211</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.04794399502139846</v>
+        <v>-0.04917748720272663</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.04356611490972218</v>
+        <v>0.0384670867577519</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>-0.0990000751161676</v>
+        <v>-0.1109262494670948</v>
       </c>
     </row>
     <row r="9">
@@ -2167,40 +2167,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>-0.05154092255549036</v>
+        <v>-0.05336457663968897</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>0.04329633365784291</v>
+        <v>0.04292470093514056</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>0.03939299018040598</v>
+        <v>0.0404550255330014</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>-0.09838990080379795</v>
+        <v>-0.09572346761831163</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>-0.05593623087185029</v>
+        <v>-0.05175761258728051</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.05385364993566566</v>
+        <v>-0.07253896410165006</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.004387813917884342</v>
+        <v>0.008462521769149411</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.07158344260815763</v>
+        <v>0.07250330852284148</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.02262843978491202</v>
+        <v>-0.02245916158947237</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.03160571726588568</v>
+        <v>-0.03329114818848833</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>-0.03357399923808102</v>
+        <v>-0.03533427314126913</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.05376376749470557</v>
+        <v>0.05088313934962652</v>
       </c>
     </row>
     <row r="10">
@@ -2208,25 +2208,25 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>0.1247240821835103</v>
+        <v>0.1314228412869172</v>
       </c>
       <c r="C10" s="15" t="n">
-        <v>0.005251067499300488</v>
+        <v>0.005250893878353313</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>0.07126960836669793</v>
+        <v>0.07126968107119591</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0.1322619314149822</v>
+        <v>0.1322845664064809</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>-0.0340133526152091</v>
+        <v>-0.03300053474966858</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>-0.126493135166326</v>
+        <v>-0.135412065878569</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>0.007306704815977616</v>
+        <v>0.007724561860561252</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>
